--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1079923.579497611</v>
+        <v>1112501.79401281</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584667</v>
+        <v>460545.8926584666</v>
       </c>
     </row>
     <row r="8">
@@ -668,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>3.749580224518764</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -981,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>78.68895450699577</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -1029,16 +1031,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>31.60815104066432</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,67 +1141,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="10">
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1390,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>62.50038840473182</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1461,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>29.38391736390409</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
@@ -1515,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>152.3002292039013</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1537,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
-        <v>10.5421541965934</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
         <v>157.3867970498209</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>121.0008549304738</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3841506400518</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1683,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>123.6077575056603</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1704,7 +1706,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>120.9673892710046</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>10.5421541965934</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>139.0783256288916</v>
@@ -1813,7 +1815,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>167.9289512464142</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>45.20428959175573</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>92.76730523918955</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1929,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>76.32943916025816</v>
+        <v>6.673890207337569</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>74.13749662856661</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>62.56525216889501</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>161.3869870607313</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>135.4587505538995</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2166,16 +2168,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>112.637689266747</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>29.38391736390409</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>115.1165353722833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>43.03218749909144</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.14185878262054</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>62.29118366165555</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2403,19 +2405,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>87.97716286131265</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>66.55239406957185</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
@@ -2451,7 +2453,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>43.26585203414595</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>43.35606979968811</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>52.50381231381081</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>247.3328093532986</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,7 +2636,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2646,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>75.21452689901405</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U27" t="n">
         <v>225.8986597023843</v>
@@ -2719,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>122.5415447766139</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>111.3550458383074</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>349.9311566792248</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
@@ -2849,13 +2851,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>224.0321919035495</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>219.9881595201828</v>
+        <v>60.36693997173244</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>109.7384251876796</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2992,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>16.60419956430097</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>153.753499702507</v>
+        <v>230.6468925243773</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3114,19 +3116,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>45.59910121103272</v>
       </c>
       <c r="F33" t="n">
-        <v>24.64815776426665</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>95.44405068852413</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>208.1860399441546</v>
       </c>
     </row>
     <row r="35">
@@ -3266,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>26.4777665757303</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
@@ -3284,7 +3286,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>153.1140874585515</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,22 +3350,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426666</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.049743378592401</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.54798812758653</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,19 +3435,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>121.393646812485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,13 +3593,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>107.4145417015737</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>67.03858805571424</v>
@@ -3627,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>59.57056692594212</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>149.7232056537455</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>34.28709292221073</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>362.2018468320693</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3836,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.38391736390425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>50.39085407108832</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.26585203414595</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>203.8766041230049</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>47.25173181060187</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>123.320794865197</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>101.4950217895004</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>862.8876260635219</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="E3" t="n">
         <v>508.9694238887622</v>
@@ -4416,7 +4418,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
         <v>613.2059550252818</v>
@@ -4425,34 +4427,34 @@
         <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V6" t="n">
-        <v>227.1326433157456</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.84447166430675</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C9" t="n">
-        <v>69.84447166430675</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D9" t="n">
-        <v>69.84447166430675</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E9" t="n">
-        <v>69.84447166430675</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4890,16 +4892,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4917,16 +4919,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>277.6047704292607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>69.84447166430675</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="10">
@@ -4978,10 +4980,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
         <v>19.28114311021272</v>
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2344.749822082216</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="C11" t="n">
-        <v>2115.893810642661</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.628112035911</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E11" t="n">
-        <v>1371.839859437666</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F11" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5072,19 +5074,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>2281.618116622891</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.749822082216</v>
+        <v>1950.55522927932</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>676.0544483625931</v>
+        <v>843.8100588399052</v>
       </c>
       <c r="C12" t="n">
-        <v>501.6014190814661</v>
+        <v>669.3570295587782</v>
       </c>
       <c r="D12" t="n">
-        <v>352.6670094202149</v>
+        <v>520.4226198975269</v>
       </c>
       <c r="E12" t="n">
-        <v>193.4295544147594</v>
+        <v>361.1851648920714</v>
       </c>
       <c r="F12" t="n">
-        <v>46.89499644164432</v>
+        <v>214.6506069189564</v>
       </c>
       <c r="G12" t="n">
-        <v>46.89499644164432</v>
+        <v>76.57572105164846</v>
       </c>
       <c r="H12" t="n">
         <v>46.89499644164432</v>
@@ -5121,19 +5123,19 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
         <v>2344.749822082216</v>
@@ -5142,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y12" t="n">
-        <v>844.2697853826612</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
-        <v>412.4263787765005</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
         <v>401.7777381738809</v>
@@ -5218,31 +5220,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1578.183232104166</v>
+        <v>1907.76828710506</v>
       </c>
       <c r="C14" t="n">
-        <v>1209.220715163754</v>
+        <v>1907.76828710506</v>
       </c>
       <c r="D14" t="n">
-        <v>850.9550165570038</v>
+        <v>1549.502588498309</v>
       </c>
       <c r="E14" t="n">
-        <v>465.1667639587595</v>
+        <v>1163.714335900065</v>
       </c>
       <c r="F14" t="n">
-        <v>465.1667639587595</v>
+        <v>752.7284311104574</v>
       </c>
       <c r="G14" t="n">
-        <v>46.89499644164432</v>
+        <v>334.4566635933423</v>
       </c>
       <c r="H14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5303,25 +5305,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2184.765831536709</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T14" t="n">
-        <v>1964.783072168288</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U14" t="n">
-        <v>1964.783072168288</v>
+        <v>1907.76828710506</v>
       </c>
       <c r="V14" t="n">
-        <v>1964.783072168288</v>
+        <v>1907.76828710506</v>
       </c>
       <c r="W14" t="n">
-        <v>1964.783072168288</v>
+        <v>1907.76828710506</v>
       </c>
       <c r="X14" t="n">
-        <v>1964.783072168288</v>
+        <v>1907.76828710506</v>
       </c>
       <c r="Y14" t="n">
-        <v>1964.783072168288</v>
+        <v>1907.76828710506</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>790.3481019751835</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C15" t="n">
-        <v>790.3481019751835</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
@@ -5361,10 +5363,10 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N15" t="n">
         <v>1486.172378671464</v>
@@ -5379,28 +5381,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V15" t="n">
-        <v>1460.197257673872</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W15" t="n">
-        <v>1205.95990094567</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X15" t="n">
-        <v>998.1084007401373</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y15" t="n">
-        <v>790.3481019751835</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.4263787765005</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="C16" t="n">
-        <v>412.4263787765005</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="D16" t="n">
-        <v>412.4263787765005</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="E16" t="n">
-        <v>412.4263787765005</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="F16" t="n">
-        <v>412.4263787765005</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="H16" t="n">
         <v>242.8011754972942</v>
@@ -5461,25 +5463,25 @@
         <v>412.4263787765005</v>
       </c>
       <c r="S16" t="n">
-        <v>412.4263787765005</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="T16" t="n">
-        <v>412.4263787765005</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="U16" t="n">
-        <v>412.4263787765005</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="V16" t="n">
-        <v>412.4263787765005</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="W16" t="n">
-        <v>412.4263787765005</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="X16" t="n">
-        <v>412.4263787765005</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="Y16" t="n">
-        <v>412.4263787765005</v>
+        <v>242.8011754972942</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1371.839859437666</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="C17" t="n">
-        <v>1371.839859437666</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D17" t="n">
-        <v>1371.839859437666</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E17" t="n">
         <v>1371.839859437666</v>
@@ -5513,10 +5515,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
         <v>762.591673824455</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T17" t="n">
-        <v>2050.393517622824</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U17" t="n">
-        <v>1796.607095507691</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="V17" t="n">
-        <v>1465.54420816412</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="W17" t="n">
-        <v>1371.839859437666</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="X17" t="n">
-        <v>1371.839859437666</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="Y17" t="n">
-        <v>1371.839859437666</v>
+        <v>2161.554709220192</v>
       </c>
     </row>
     <row r="18">
@@ -5577,16 +5579,16 @@
         <v>298.7453260127371</v>
       </c>
       <c r="E18" t="n">
-        <v>221.6448824165167</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="F18" t="n">
-        <v>221.6448824165167</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5595,22 +5597,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L18" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M18" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>607.7685734363102</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="C19" t="n">
-        <v>438.8323905084034</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="D19" t="n">
-        <v>438.8323905084034</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="E19" t="n">
-        <v>290.9192969260102</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="F19" t="n">
-        <v>216.0329366951349</v>
+        <v>279.2301611081601</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164432</v>
+        <v>110.0922208546696</v>
       </c>
       <c r="H19" t="n">
         <v>46.89499644164432</v>
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1369.518436721529</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="C20" t="n">
-        <v>1369.518436721529</v>
+        <v>1121.297556972598</v>
       </c>
       <c r="D20" t="n">
-        <v>1369.518436721529</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E20" t="n">
-        <v>1369.518436721529</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F20" t="n">
-        <v>958.5325319319215</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G20" t="n">
-        <v>540.2607644148063</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H20" t="n">
-        <v>209.9121550888476</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376118</v>
@@ -5774,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>2087.181164129222</v>
+        <v>2207.922801320702</v>
       </c>
       <c r="U20" t="n">
-        <v>2087.181164129222</v>
+        <v>2207.922801320702</v>
       </c>
       <c r="V20" t="n">
-        <v>1756.118276785651</v>
+        <v>1876.859913977131</v>
       </c>
       <c r="W20" t="n">
-        <v>1756.118276785651</v>
+        <v>1876.859913977131</v>
       </c>
       <c r="X20" t="n">
-        <v>1756.118276785651</v>
+        <v>1876.859913977131</v>
       </c>
       <c r="Y20" t="n">
-        <v>1756.118276785651</v>
+        <v>1876.859913977131</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>843.8100588399052</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C21" t="n">
-        <v>669.3570295587782</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D21" t="n">
-        <v>520.4226198975269</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E21" t="n">
-        <v>361.1851648920714</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="F21" t="n">
-        <v>214.6506069189564</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G21" t="n">
-        <v>76.57572105164846</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
         <v>46.89499644164432</v>
@@ -5829,16 +5831,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L21" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N21" t="n">
         <v>1637.630816213677</v>
@@ -5853,28 +5855,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1917.026659790404</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1681.874551558662</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1427.63719483046</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1219.785694624927</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>1012.025395859973</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L22" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S22" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T22" t="n">
-        <v>163.1743251005163</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U22" t="n">
-        <v>163.1743251005163</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V22" t="n">
-        <v>163.1743251005163</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W22" t="n">
-        <v>46.89499644164432</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X22" t="n">
-        <v>46.89499644164432</v>
+        <v>1827.343101147238</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1570.897369376658</v>
+        <v>1269.810402678106</v>
       </c>
       <c r="C23" t="n">
-        <v>1201.934852436247</v>
+        <v>900.847885737694</v>
       </c>
       <c r="D23" t="n">
-        <v>843.6691538294961</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E23" t="n">
-        <v>457.8809012312519</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F23" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G23" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376118</v>
@@ -6011,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082216</v>
+        <v>1987.473130085798</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082216</v>
+        <v>1656.410242742227</v>
       </c>
       <c r="W23" t="n">
-        <v>1991.981166812102</v>
+        <v>1656.410242742227</v>
       </c>
       <c r="X23" t="n">
-        <v>1618.515408551022</v>
+        <v>1656.410242742227</v>
       </c>
       <c r="Y23" t="n">
-        <v>1618.515408551022</v>
+        <v>1656.410242742227</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>850.313229300958</v>
+        <v>850.7918407605284</v>
       </c>
       <c r="C24" t="n">
-        <v>675.860200019831</v>
+        <v>676.3388114794014</v>
       </c>
       <c r="D24" t="n">
-        <v>526.9257903585798</v>
+        <v>527.4044018181502</v>
       </c>
       <c r="E24" t="n">
-        <v>367.6883353531243</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F24" t="n">
-        <v>221.1537773800092</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G24" t="n">
-        <v>221.1537773800092</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H24" t="n">
-        <v>114.1196369159593</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6069,49 +6071,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M24" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U24" t="n">
-        <v>1923.529830251457</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V24" t="n">
-        <v>1688.377722019714</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W24" t="n">
-        <v>1434.140365291513</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X24" t="n">
-        <v>1226.28886508598</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y24" t="n">
-        <v>1018.528566321026</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1783.87624508755</v>
+        <v>90.597877284216</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.87624508755</v>
+        <v>90.597877284216</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>2116.851400240302</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>1827.670254986225</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V25" t="n">
-        <v>1783.87624508755</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W25" t="n">
-        <v>1783.87624508755</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X25" t="n">
-        <v>1783.87624508755</v>
+        <v>90.597877284216</v>
       </c>
       <c r="Y25" t="n">
-        <v>1783.87624508755</v>
+        <v>90.597877284216</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1287.452521207452</v>
+        <v>1958.149982018095</v>
       </c>
       <c r="C26" t="n">
-        <v>1287.452521207452</v>
+        <v>1589.187465077683</v>
       </c>
       <c r="D26" t="n">
-        <v>929.1868226007011</v>
+        <v>1589.187465077683</v>
       </c>
       <c r="E26" t="n">
-        <v>876.152668748367</v>
+        <v>1203.399212479439</v>
       </c>
       <c r="F26" t="n">
-        <v>465.1667639587595</v>
+        <v>792.4133076898311</v>
       </c>
       <c r="G26" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H26" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
@@ -6227,10 +6229,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6260,16 +6262,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V26" t="n">
-        <v>2013.686934738646</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W26" t="n">
-        <v>1660.918279468531</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X26" t="n">
-        <v>1287.452521207452</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y26" t="n">
-        <v>1287.452521207452</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>783.3663200545602</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C27" t="n">
-        <v>783.3663200545602</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D27" t="n">
-        <v>634.431910393309</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E27" t="n">
-        <v>475.1944553878535</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F27" t="n">
-        <v>328.6598974147385</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G27" t="n">
-        <v>190.5850115474305</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6309,16 +6311,16 @@
         <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373775</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
         <v>2344.749822082216</v>
@@ -6330,25 +6332,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2084.763385350902</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U27" t="n">
-        <v>1856.582921005059</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V27" t="n">
-        <v>1621.430812773317</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W27" t="n">
-        <v>1367.193456045115</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X27" t="n">
-        <v>1159.341955839582</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y27" t="n">
-        <v>951.5816570746283</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="C28" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="D28" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="E28" t="n">
-        <v>205.8715591182311</v>
+        <v>170.6743345998402</v>
       </c>
       <c r="F28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
         <v>46.89499644164432</v>
@@ -6385,7 +6387,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L28" t="n">
         <v>194.9121237200978</v>
@@ -6415,19 +6417,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V28" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W28" t="n">
-        <v>318.3514033993496</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X28" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y28" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1314.319769475559</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="C29" t="n">
-        <v>1314.319769475559</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="D29" t="n">
-        <v>1314.319769475559</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="E29" t="n">
-        <v>1314.319769475559</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F29" t="n">
         <v>960.8539546480588</v>
@@ -6488,25 +6490,25 @@
         <v>2344.749822082217</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.554709220193</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T29" t="n">
-        <v>1941.571949851771</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U29" t="n">
-        <v>1687.785527736638</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V29" t="n">
-        <v>1687.785527736638</v>
+        <v>1539.917753255092</v>
       </c>
       <c r="W29" t="n">
-        <v>1687.785527736638</v>
+        <v>1187.149097984978</v>
       </c>
       <c r="X29" t="n">
-        <v>1314.319769475559</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="Y29" t="n">
-        <v>1314.319769475559</v>
+        <v>960.8539546480588</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L30" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6567,10 +6569,10 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U30" t="n">
         <v>2062.095821155272</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1783.87624508755</v>
+        <v>157.7418905706137</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.87624508755</v>
+        <v>157.7418905706137</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>157.7418905706137</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="T31" t="n">
-        <v>2344.749822082216</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="U31" t="n">
-        <v>2327.977903330397</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="V31" t="n">
-        <v>2073.29341512451</v>
+        <v>157.7418905706137</v>
       </c>
       <c r="W31" t="n">
-        <v>1783.87624508755</v>
+        <v>157.7418905706137</v>
       </c>
       <c r="X31" t="n">
-        <v>1783.87624508755</v>
+        <v>157.7418905706137</v>
       </c>
       <c r="Y31" t="n">
-        <v>1783.87624508755</v>
+        <v>157.7418905706137</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>587.9898143959563</v>
+        <v>863.4820044376327</v>
       </c>
       <c r="C32" t="n">
-        <v>432.6832490398886</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="D32" t="n">
-        <v>432.6832490398886</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="E32" t="n">
-        <v>46.89499644164432</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6719,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U32" t="n">
-        <v>2090.963399967084</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V32" t="n">
-        <v>2090.963399967084</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W32" t="n">
-        <v>1738.19474469697</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="X32" t="n">
-        <v>1364.72898643589</v>
+        <v>1640.221176477566</v>
       </c>
       <c r="Y32" t="n">
-        <v>974.589654460078</v>
+        <v>1250.081844501754</v>
       </c>
     </row>
     <row r="33">
@@ -6762,10 +6764,10 @@
         <v>298.7453260127371</v>
       </c>
       <c r="E33" t="n">
-        <v>139.5078710072816</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="F33" t="n">
-        <v>114.6107419524668</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G33" t="n">
         <v>114.6107419524668</v>
@@ -6780,22 +6782,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>198.7261503050039</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="C34" t="n">
-        <v>198.7261503050039</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D34" t="n">
-        <v>198.7261503050039</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E34" t="n">
-        <v>198.7261503050039</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V34" t="n">
-        <v>198.7261503050039</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W34" t="n">
-        <v>198.7261503050039</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X34" t="n">
-        <v>198.7261503050039</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y34" t="n">
-        <v>198.7261503050039</v>
+        <v>2134.460892845696</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1206.501278074326</v>
+        <v>1345.864872018173</v>
       </c>
       <c r="C35" t="n">
-        <v>1206.501278074326</v>
+        <v>1319.119653254809</v>
       </c>
       <c r="D35" t="n">
-        <v>1206.501278074326</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="E35" t="n">
-        <v>1206.501278074326</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F35" t="n">
-        <v>795.5153732847182</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G35" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6938,10 +6940,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6959,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T35" t="n">
-        <v>2124.767062713795</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U35" t="n">
-        <v>2124.767062713795</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V35" t="n">
-        <v>2124.767062713795</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="W35" t="n">
-        <v>1970.106368311217</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="X35" t="n">
-        <v>1596.640610050137</v>
+        <v>1345.864872018173</v>
       </c>
       <c r="Y35" t="n">
-        <v>1206.501278074326</v>
+        <v>1345.864872018173</v>
       </c>
     </row>
     <row r="36">
@@ -6996,43 +6998,43 @@
         <v>447.6797356739884</v>
       </c>
       <c r="D36" t="n">
-        <v>447.6797356739884</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E36" t="n">
-        <v>447.6797356739884</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F36" t="n">
-        <v>301.1451777008733</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G36" t="n">
-        <v>163.0702918335654</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H36" t="n">
-        <v>56.03615136951544</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H37" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I37" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L37" t="n">
         <v>194.9121237200978</v>
@@ -7114,31 +7116,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W37" t="n">
-        <v>49.46872182304486</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X37" t="n">
-        <v>49.46872182304486</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.46872182304486</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.89499644164432</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="C38" t="n">
-        <v>46.89499644164432</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7175,13 +7177,13 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7196,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W38" t="n">
-        <v>929.5804400319823</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="X38" t="n">
-        <v>556.1146817709025</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="Y38" t="n">
-        <v>433.4948365057661</v>
+        <v>2115.893810642661</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>843.8100588399052</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>669.3570295587782</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>520.4226198975269</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>361.1851648920714</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H39" t="n">
         <v>114.6107419524668</v>
@@ -7251,52 +7253,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L39" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T39" t="n">
-        <v>2284.306083296871</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2163.101357251976</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C40" t="n">
-        <v>1994.16517432407</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D40" t="n">
-        <v>1844.048534911734</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E40" t="n">
         <v>1783.87624508755</v>
@@ -7369,13 +7371,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W40" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.514260815807</v>
       </c>
       <c r="X40" t="n">
-        <v>2344.749822082216</v>
+        <v>1965.52470991779</v>
       </c>
       <c r="Y40" t="n">
-        <v>2344.749822082216</v>
+        <v>1965.52470991779</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1194.544891781203</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="C41" t="n">
-        <v>825.5823748407913</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="D41" t="n">
-        <v>467.3166762340408</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E41" t="n">
-        <v>81.52842363579657</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7409,16 +7411,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L41" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7451,10 +7453,10 @@
         <v>2344.749822082216</v>
       </c>
       <c r="X41" t="n">
-        <v>1971.284063821136</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y41" t="n">
-        <v>1581.144731845325</v>
+        <v>1978.889370736692</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7491,49 +7493,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2315.069097472212</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2315.069097472212</v>
       </c>
       <c r="T42" t="n">
-        <v>2290.276285501115</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.89499644164432</v>
+        <v>97.79484903870323</v>
       </c>
       <c r="C43" t="n">
-        <v>46.89499644164432</v>
+        <v>97.79484903870323</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>97.79484903870323</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>97.79484903870323</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>97.79484903870323</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>97.79484903870323</v>
       </c>
       <c r="H43" t="n">
         <v>46.89499644164432</v>
@@ -7609,10 +7611,10 @@
         <v>318.5874281822333</v>
       </c>
       <c r="X43" t="n">
-        <v>90.597877284216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.89499644164432</v>
+        <v>97.79484903870323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>457.8809012312519</v>
+        <v>415.857513382056</v>
       </c>
       <c r="C44" t="n">
-        <v>457.8809012312519</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D44" t="n">
-        <v>457.8809012312519</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E44" t="n">
-        <v>457.8809012312519</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
         <v>46.89499644164432</v>
@@ -7646,16 +7648,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7670,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.411982645667</v>
+        <v>1918.831098953184</v>
       </c>
       <c r="V44" t="n">
-        <v>1282.349095302096</v>
+        <v>1918.831098953184</v>
       </c>
       <c r="W44" t="n">
-        <v>1234.620073271185</v>
+        <v>1566.062443683069</v>
       </c>
       <c r="X44" t="n">
-        <v>1234.620073271185</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="Y44" t="n">
-        <v>844.4807412953737</v>
+        <v>802.4573534461779</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7730,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L45" t="n">
-        <v>645.6158192373777</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N45" t="n">
-        <v>1640.568559592726</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
         <v>2193.291384540003</v>
@@ -7783,16 +7785,16 @@
         <v>318.3514033993496</v>
       </c>
       <c r="C46" t="n">
-        <v>318.3514033993496</v>
+        <v>149.4152204714427</v>
       </c>
       <c r="D46" t="n">
-        <v>318.3514033993496</v>
+        <v>149.4152204714427</v>
       </c>
       <c r="E46" t="n">
-        <v>193.7849439395547</v>
+        <v>149.4152204714427</v>
       </c>
       <c r="F46" t="n">
-        <v>46.89499644164432</v>
+        <v>149.4152204714427</v>
       </c>
       <c r="G46" t="n">
         <v>46.89499644164432</v>
@@ -8064,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>57.08896698613911</v>
@@ -9009,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108656</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9243,7 +9245,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>323.3866360392488</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>462.7376461954049</v>
       </c>
       <c r="N21" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>108.5094987082738</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>462.7376461954049</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>162.5070303356321</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>261.4978194579836</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119838</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>330.2893092338458</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928321</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,7 +11378,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>162.5070303356321</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22556,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,19 +22594,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22626,13 +22628,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>153.8955002308822</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22686,10 +22688,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22787,10 +22789,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22799,13 +22801,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>108.6003065196844</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22869,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>78.95612594840517</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22917,16 +22919,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>201.1924361087609</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>149.1294050414824</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23097,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>62.17774896794338</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23157,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="10">
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>188.7481694892494</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23349,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>76.57988169550534</v>
       </c>
       <c r="I12" t="n">
         <v>67.03858805571426</v>
@@ -23382,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23403,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>53.38246657340304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23425,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
-        <v>156.9044066543622</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
         <v>214.5288682289405</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>206.0442683022253</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>22.979011093352</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23571,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>23.83730805897849</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23592,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>76.57988169550505</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>156.9044066543622</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>46.59991698252628</v>
       </c>
       <c r="T16" t="n">
         <v>225.6194376234954</v>
@@ -23732,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>320.0686021792518</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>256.4736634782234</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23817,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>81.31564129514278</v>
+        <v>150.9711902480634</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>71.28355139436464</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>94.82154488092587</v>
       </c>
       <c r="I19" t="n">
         <v>139.0783256288916</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.298208488975916</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>82.32418122083797</v>
       </c>
       <c r="U20" t="n">
         <v>251.2485578939812</v>
@@ -24054,19 +24056,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>45.00739118865395</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>76.57988169550534</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>171.4064629643077</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>175.5524658530034</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.59198288086</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>188.9573742323257</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24291,19 +24293,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>69.66791759408829</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4861939861424105</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24339,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>105.3496209840664</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24384,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
@@ -24415,19 +24417,19 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>208.7815735241399</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>329.4265577584509</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>166.7562404886453</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
@@ -24500,13 +24502,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24534,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>30.74927216039538</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>22.87950324631731</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620181</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R28" t="n">
         <v>152.8143555761653</v>
@@ -24655,16 +24657,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>114.3546095507298</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>56.94488906248665</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24725,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>145.6989087749195</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24807,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>5.910500182201503</v>
+        <v>165.5317197306519</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>36.69553745888953</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24858,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24880,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>214.5288682289405</v>
@@ -24892,13 +24894,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>269.6851342372352</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>211.5193920685005</v>
+        <v>134.6259992466303</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
@@ -24971,13 +24973,13 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25002,13 +25004,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>112.0459792443682</v>
       </c>
       <c r="F33" t="n">
-        <v>120.4210546291172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>105.9637990594094</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>49.97699733440712</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.4465608509556</v>
@@ -25093,10 +25095,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
         <v>214.5288682289405</v>
@@ -25132,7 +25134,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>10.39861340794016</v>
       </c>
     </row>
     <row r="35">
@@ -25154,16 +25156,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>338.7951251952773</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
@@ -25211,16 +25213,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>196.1268812588615</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25236,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>57.98884467712185</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.2839920543508</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,19 +25323,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25363,7 +25365,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>122.6735173922536</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>264.8442918435686</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25479,13 +25481,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>37.65467069181018</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>86.86339572062705</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>136.7997926828455</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>372.5889528195007</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25691,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>24.03609182398429</v>
       </c>
     </row>
     <row r="42">
@@ -25722,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>30.45538403358717</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>106.9959429787326</v>
       </c>
       <c r="I43" t="n">
         <v>139.0783256288915</v>
@@ -25849,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>175.3188013179488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
@@ -25910,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>47.37195377097632</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>301.9892369068111</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>23.11316778137218</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>65.95153906145521</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>432255.9283617517</v>
+        <v>432255.9283617518</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>432255.9283617517</v>
+        <v>432255.9283617518</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>669522.4654099807</v>
+        <v>669522.4654099805</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>669522.4654099804</v>
+        <v>669522.4654099806</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>669522.4654099805</v>
+        <v>669522.4654099806</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>669522.4654099805</v>
+        <v>669522.4654099806</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>669522.4654099806</v>
+        <v>669522.4654099805</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>669522.4654099804</v>
+        <v>669522.4654099807</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>669522.4654099805</v>
+        <v>669522.4654099806</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>669522.4654099806</v>
+        <v>669522.4654099804</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26316,31 @@
         <v>182776.7397844656</v>
       </c>
       <c r="C2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="D2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="E2" t="n">
         <v>290813.7097406369</v>
       </c>
       <c r="F2" t="n">
-        <v>290813.7097406369</v>
+        <v>290813.709740637</v>
       </c>
       <c r="G2" t="n">
-        <v>290813.7097406369</v>
+        <v>290813.7097406368</v>
       </c>
       <c r="H2" t="n">
+        <v>290813.7097406368</v>
+      </c>
+      <c r="I2" t="n">
         <v>290813.709740637</v>
-      </c>
-      <c r="I2" t="n">
-        <v>290813.7097406369</v>
       </c>
       <c r="J2" t="n">
         <v>290813.7097406368</v>
       </c>
       <c r="K2" t="n">
-        <v>290813.7097406368</v>
+        <v>290813.7097406369</v>
       </c>
       <c r="L2" t="n">
         <v>290813.7097406369</v>
@@ -26347,10 +26349,10 @@
         <v>290813.7097406369</v>
       </c>
       <c r="N2" t="n">
-        <v>290813.7097406367</v>
+        <v>290813.709740637</v>
       </c>
       <c r="O2" t="n">
-        <v>290813.7097406368</v>
+        <v>290813.709740637</v>
       </c>
       <c r="P2" t="n">
         <v>290813.7097406368</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26454,10 +26456,10 @@
         <v>35464.97636158489</v>
       </c>
       <c r="O4" t="n">
-        <v>35464.97636158488</v>
+        <v>35464.97636158489</v>
       </c>
       <c r="P4" t="n">
-        <v>35464.97636158488</v>
+        <v>35464.97636158489</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20076.19270489849</v>
+        <v>20076.19270489847</v>
       </c>
       <c r="C6" t="n">
         <v>100845.6242364463</v>
@@ -26531,34 +26533,34 @@
         <v>-132485.3315253472</v>
       </c>
       <c r="F6" t="n">
-        <v>213127.0112536054</v>
+        <v>213127.0112536055</v>
       </c>
       <c r="G6" t="n">
         <v>213127.0112536054</v>
       </c>
       <c r="H6" t="n">
+        <v>213127.0112536054</v>
+      </c>
+      <c r="I6" t="n">
         <v>213127.0112536056</v>
-      </c>
-      <c r="I6" t="n">
-        <v>213127.0112536054</v>
       </c>
       <c r="J6" t="n">
         <v>150067.0686544991</v>
       </c>
       <c r="K6" t="n">
-        <v>213127.0112536053</v>
+        <v>213127.0112536054</v>
       </c>
       <c r="L6" t="n">
         <v>213127.0112536054</v>
       </c>
       <c r="M6" t="n">
-        <v>127108.4774335295</v>
+        <v>127108.4774335294</v>
       </c>
       <c r="N6" t="n">
-        <v>213127.0112536052</v>
+        <v>213127.0112536056</v>
       </c>
       <c r="O6" t="n">
-        <v>213127.0112536054</v>
+        <v>213127.0112536056</v>
       </c>
       <c r="P6" t="n">
         <v>213127.0112536054</v>
@@ -26753,22 +26755,22 @@
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="J3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="K3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="M3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="N3" t="n">
         <v>301.9048087062787</v>
@@ -32467,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
@@ -32725,22 +32727,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P23" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S23" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I24" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
@@ -32795,25 +32797,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M24" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N24" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O24" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P24" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S24" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T24" t="n">
         <v>2.617457728311981</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I25" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L25" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N25" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R25" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T25" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32943,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I26" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J26" t="n">
         <v>103.0102241525006</v>
@@ -32962,22 +32964,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P26" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q26" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R26" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S26" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T26" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H27" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I27" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J27" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K27" t="n">
         <v>104.8606541711232</v>
@@ -33032,25 +33034,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M27" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N27" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O27" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P27" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R27" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S27" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T27" t="n">
         <v>2.617457728311981</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H28" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I28" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J28" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K28" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L28" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M28" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N28" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O28" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P28" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R28" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S28" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T28" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33180,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I29" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J29" t="n">
         <v>103.0102241525006</v>
@@ -33199,22 +33201,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P29" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q29" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R29" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S29" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T29" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H30" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I30" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J30" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K30" t="n">
         <v>104.8606541711232</v>
@@ -33269,25 +33271,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M30" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N30" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O30" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P30" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R30" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S30" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T30" t="n">
         <v>2.617457728311981</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H31" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I31" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J31" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K31" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L31" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M31" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N31" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O31" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P31" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R31" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S31" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T31" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33417,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I32" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J32" t="n">
         <v>103.0102241525006</v>
@@ -33436,22 +33438,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P32" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q32" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R32" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S32" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T32" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H33" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I33" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J33" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K33" t="n">
         <v>104.8606541711232</v>
@@ -33506,25 +33508,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M33" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N33" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O33" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P33" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R33" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S33" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T33" t="n">
         <v>2.617457728311981</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H34" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I34" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J34" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K34" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L34" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M34" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N34" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O34" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P34" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q34" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R34" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S34" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T34" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33654,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I35" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J35" t="n">
         <v>103.0102241525006</v>
@@ -33673,22 +33675,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P35" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q35" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R35" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S35" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T35" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H36" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I36" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J36" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K36" t="n">
         <v>104.8606541711232</v>
@@ -33743,25 +33745,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M36" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N36" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O36" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P36" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R36" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S36" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T36" t="n">
         <v>2.617457728311981</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H37" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I37" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J37" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K37" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L37" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M37" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N37" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O37" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P37" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R37" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S37" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T37" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35504,7 +35506,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651353</v>
+        <v>156.7227248725416</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
         <v>405.7701329255822</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35972,7 +35974,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -35981,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M21" t="n">
-        <v>488.1091505729034</v>
+        <v>485.1417330183085</v>
       </c>
       <c r="N21" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
@@ -36279,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L23" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M23" t="n">
         <v>432.2802359107712</v>
@@ -36370,13 +36372,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P23" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>75.52871390503797</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36449,13 +36451,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P24" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M25" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N25" t="n">
         <v>127.4430518046842</v>
@@ -36531,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K26" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L26" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M26" t="n">
         <v>432.2802359107712</v>
@@ -36607,13 +36609,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P26" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q26" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M27" t="n">
-        <v>488.1091505729034</v>
+        <v>485.1417330183085</v>
       </c>
       <c r="N27" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P27" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L28" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M28" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N28" t="n">
         <v>127.4430518046842</v>
@@ -36768,7 +36770,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P28" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K29" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L29" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M29" t="n">
         <v>432.2802359107712</v>
@@ -36844,13 +36846,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P29" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q29" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36923,13 +36925,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P30" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L31" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M31" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N31" t="n">
         <v>127.4430518046842</v>
@@ -37005,7 +37007,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P31" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K32" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L32" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M32" t="n">
         <v>432.2802359107712</v>
@@ -37081,13 +37083,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O32" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P32" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q32" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37160,13 +37162,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P33" t="n">
-        <v>308.4914891638518</v>
+        <v>152.5357508595468</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L34" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M34" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N34" t="n">
         <v>127.4430518046842</v>
@@ -37242,7 +37244,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P34" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K35" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L35" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M35" t="n">
         <v>432.2802359107712</v>
@@ -37318,13 +37320,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O35" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P35" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q35" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37397,13 +37399,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P36" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L37" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M37" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N37" t="n">
         <v>127.4430518046842</v>
@@ -37479,7 +37481,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P37" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K39" t="n">
-        <v>228.5170346547479</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37640,7 +37642,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>432.2802359107712</v>
       </c>
       <c r="N41" t="n">
-        <v>424.4951865620585</v>
+        <v>424.4951865620588</v>
       </c>
       <c r="O41" t="n">
         <v>355.1946887874306</v>
@@ -37859,7 +37861,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37871,13 +37873,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255823</v>
+        <v>342.1971228826985</v>
       </c>
       <c r="P42" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>373.423817067563</v>
       </c>
       <c r="M44" t="n">
-        <v>432.2802359107708</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N44" t="n">
         <v>424.4951865620588</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38111,7 +38113,7 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>152.5357508595468</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
         <v>152.98832074971</v>
